--- a/Xports/UD_French-ParTUT/VERB-obl.xlsx
+++ b/Xports/UD_French-ParTUT/VERB-obl.xlsx
@@ -24537,7 +24537,7 @@
         <v>4075</v>
       </c>
       <c r="O254">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:15">
@@ -55515,7 +55515,7 @@
         <v>4074</v>
       </c>
       <c r="O914">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="915" spans="1:15">
